--- a/medicine/Mort/Décès_en_1919/Décès_en_1919.xlsx
+++ b/medicine/Mort/Décès_en_1919/Décès_en_1919.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1919</t>
+          <t>Décès_en_1919</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1919</t>
+          <t>Décès_en_1919</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,15 +540,54 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Date inconnue
-Jacques Berger, peintre et dessinateur sur tissu français (° 22 novembre 1834).
+          <t>Date inconnue</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Jacques Berger, peintre et dessinateur sur tissu français (° 22 novembre 1834).
 Henri Carot, peintre verrier français (° 25 octobre 1850).
 Jean-Baptiste Georges Gassies, peintre et aquarelliste français (° 1829).
 Radovan Miletić, colonel et géographe de l'armée serbe (° 12 janvier 1844).
 Mohamed Remaoun, mystique, poète et musicien algérien (° 1833).
-Adolf Steinmetz, ingénieur et homme politique allemand (° 14 janvier 1886).
-Janvier
-6 janvier : Theodore Roosevelt, ex-président des États-Unis (° 27 octobre 1858).
+Adolf Steinmetz, ingénieur et homme politique allemand (° 14 janvier 1886).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1919</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1919</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>6 janvier : Theodore Roosevelt, ex-président des États-Unis (° 27 octobre 1858).
 8 janvier : Joaquín Agrasot, peintre espagnol (° 24 décembre 1836).
 15 janvier :
 Rosa Luxemburg, militante socialiste et théoricienne marxiste russe naturalisée allemande (° 5 mars 1871).
@@ -556,9 +607,43 @@
 Ferdinand d'Huart, peintre luxembourgeois (° 14 mai 1858).
 29 janvier : Richard Bergh, peintre suédois (° 28 décembre 1858).
 30 janvier : Sam Steele, officier de la gendarmerie royale du Canada (° 5 janvier 1849).
-31 janvier : Narcisse Rabier, peintre français (° 1er mars 1829).
-Février
-2 février : Xavier Leroux, compositeur français (° 11 octobre 1863).
+31 janvier : Narcisse Rabier, peintre français (° 1er mars 1829).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1919</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1919</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2 février : Xavier Leroux, compositeur français (° 11 octobre 1863).
 16 février : Joseph Rulot, sculpteur belge (° 29 janvier 1853).
 17 février :
 Wilfrid Laurier, ancien Premier ministre du Canada de 1896 à 1911 (° 20 novembre 1841).
@@ -568,61 +653,367 @@
 21 février : Giovanni Bolzoni, violoniste, compositeur et pédagogue  italien (° 15 mai 1841).
 24 février : Jean-Baptiste Calame, peintre et graveur suisse (° 7 octobre 1843).
 25 février : André Chantemesse, médecin et biologiste français (° 23 octobre 1851).
-28 février : Enrico Cavalli, peintre postimpressionniste italien (° 8 novembre 1849).
-Mars
-4 mars : Georges Cain, peintre français (° 16 avril 1853).
+28 février : Enrico Cavalli, peintre postimpressionniste italien (° 8 novembre 1849).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1919</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1919</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>4 mars : Georges Cain, peintre français (° 16 avril 1853).
 8 mars : Alexis Mérodack-Jeaneau, peintre et sculpteur français (° 1er décembre 1873).
 13 mars : Fricis Bārda, poète letton (° 25 janvier 1880).
 14 mars : Heinrich Koulen, facteur d'orgues allemand (° 23 juin 1845).
-16 mars : Iakov Sverdlov, homme politique russe puis soviétique (° 3 juin 1885).
-Avril
-1er avril : Charles Milcendeau, peintre français (° 18 juillet 1872).
+16 mars : Iakov Sverdlov, homme politique russe puis soviétique (° 3 juin 1885).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1919</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1919</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1er avril : Charles Milcendeau, peintre français (° 18 juillet 1872).
 4 avril : Sir William Crookes, inventeur britannique (° 17 juin 1832).
 9 avril : Emiliano Zapata, révolutionnaire mexicain (° 8 août 1879).
 13 avril : Franc-Lamy, peintre et graveur français (° 12 mai 1855).
 18 avril : Joaquín Rucoba, architecte espagnol (° 13 janvier 1844).
 20 avril : Theo von Brockhusen, peintre, dessinateur et graveur allemand (° 16 juillet 1882).
-24 avril : Camille Erlanger, compositeur français (° 25 mai 1863).
-Mai
-6 mai : Lyman Frank Baum, écrivain, acteur et réalisateur américain (° 15 mai 1856).
+24 avril : Camille Erlanger, compositeur français (° 25 mai 1863).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1919</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1919</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>6 mai : Lyman Frank Baum, écrivain, acteur et réalisateur américain (° 15 mai 1856).
 14 mai : Henry John Heinz, inventeur américain (° 11 octobre 1844).
-26 mai : Charles Herbert, peintre et photographe français (° 22 mai 1829).
-Juin
-1er juin : Paul Cunisset-Carnot, magistrat, homme politique et écrivain français (° 19 mars 1849).
+26 mai : Charles Herbert, peintre et photographe français (° 22 mai 1829).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1919</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1919</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1er juin : Paul Cunisset-Carnot, magistrat, homme politique et écrivain français (° 19 mars 1849).
 14 juin : Oleksandr Mourachko, peintre et professeur russe (° 7 septembre 1875).
 21 juin : Cesare Tallone, peintre italien (° 11 août 1853).
-22 juin : Dominique Lang, peintre luxembourgeois (° 15 avril 1874).
-Juillet
-3 juillet : Fred Montague, acteur britannique (° 1864).
+22 juin : Dominique Lang, peintre luxembourgeois (° 15 avril 1874).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1919</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1919</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>3 juillet : Fred Montague, acteur britannique (° 1864).
 12 juillet : Désiré Maroille, homme politique belge (° 23 novembre 1862).
 27 juillet :
 Adelina Patti, chanteuse d'opéra (soprano colorature) italienne (° 10 février 1843).
 Charles Conrad Abbott, archéologue et naturaliste américain (° 4 juin 1843).
 29 juillet : Frederick Peters, premier ministre de l'Île-du-Prince-Édouard (° 8 avril 1851).
-31 juillet : Ferdinand Thieriot, violoncelliste et compositeur allemand (° 7 avril 1838).
-Août
-2 août : Johann von Dallwitz, homme politique allemand (° 29 septembre 1855).
+31 juillet : Ferdinand Thieriot, violoncelliste et compositeur allemand (° 7 avril 1838).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1919</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1919</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2 août : Johann von Dallwitz, homme politique allemand (° 29 septembre 1855).
 7 août : Cesare Maccari, peintre et aquafortiste italien (° 9 mai 1840).
 19 août : Mark F. Napier, banquier, homme politique et homme d'affaires britannique (° 21 janvier 1852).
 26 août : Eugène Dédé, compositeur et chef d'orchestre français (° 12 janvier 1867).
 27 août : Louis Botha, général et homme politique sud-africain (° 27 septembre 1862).
 28 août : Adolf Schmal, coureur cycliste autrichien (° 18 septembre 1872).
-30 août : Nikolaï Chtchors, héros de la guerre civile russe (° 6 juin 1895).
-Septembre
-2 septembre : Georges Clairin, peintre et illustrateur français (° 11 septembre 1843).
+30 août : Nikolaï Chtchors, héros de la guerre civile russe (° 6 juin 1895).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1919</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1919</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2 septembre : Georges Clairin, peintre et illustrateur français (° 11 septembre 1843).
 9 septembre : Henri Lutz, compositeur et enseignant français (° 29 mars 1864).
-18 septembre : Georges Douay, compositeur et collectionneur français (° 7 janvier 1840).
-Octobre
-2 octobre : Victorino de la Plaza, homme politique argentin (° 2 novembre 1840).
+18 septembre : Georges Douay, compositeur et collectionneur français (° 7 janvier 1840).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1919</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1919</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2 octobre : Victorino de la Plaza, homme politique argentin (° 2 novembre 1840).
 7 octobre : Alfred Deakin, intellectuel, avocat et homme d'État britannique puis australien (° 3 août 1856).
 10 octobre :
 Leo Arons, physicien et homme politique allemand (° 15 février 1860).
 Emmanuel Bocher, officier, auteur et peintre français (° 10 janvier 1835).
 14 octobre : Simon Hugh Holmes, premier ministre de la Nouvelle-Écosse (° 30 juillet 1831).
 27 octobre : Alfred Roll, peintre français (° 1er mars 1846).
-? octobre : Marie Empress, actrice britannique (° 26 mars 1884).
-Novembre
-4 novembre : Sophie Tolstoï, romancière, diariste et photographe russe, relectrice-correctrice de Léon Tolstoï (° 22 août 1884).
+? octobre : Marie Empress, actrice britannique (° 26 mars 1884).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1919</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1919</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>4 novembre : Sophie Tolstoï, romancière, diariste et photographe russe, relectrice-correctrice de Léon Tolstoï (° 22 août 1884).
 7 novembre : Angelo Morbelli, peintre divisionniste italien (° 18 juillet 1853).
 11 novembre :
 George Haddow, politicien canadien (° 10 décembre 1833).
@@ -632,9 +1023,43 @@
 15 novembre : Alfred Werner, chimiste (° 12 décembre 1866).
 18 novembre : Thiodolf Rein, philosophe universitaire et homme politique finlandais (° 28 février 1838).
 19 novembre : Louis Braquaval, peintre français (° 24 octobre 1854).
-22 novembre : Robert Vollstedt, compositeur allemand de valses (° 19 décembre 1854).
-Décembre
-3 décembre : Pierre-Auguste Renoir, peintre français (° 25 février 1841).
+22 novembre : Robert Vollstedt, compositeur allemand de valses (° 19 décembre 1854).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1919</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1919</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>3 décembre : Pierre-Auguste Renoir, peintre français (° 25 février 1841).
 6 décembre : Emil Steinbach, chef d'orchestre et compositeur allemand (° 15 novembre 1849).
 9 décembre : Władysław Kulczyński, zoologiste polonais (° 27 mars 1854).
 18 décembre :
